--- a/Cases/Power BI/case 01/data/Dataset_Vendas.xlsx
+++ b/Cases/Power BI/case 01/data/Dataset_Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/marco_alencastro_br_ey_com/Documents/Documents/Repos_Git/Analytics/Cases/Power BI/case 01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3CE740194F92BCAD8F09588CF136E5CDCD5EFFED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3564DA-4D8A-4B88-A644-CAD83CB00C03}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_3CE740194F92BCAD8F09588CF136E5CDCD5EFFED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A5AFAB-DB51-4F91-8886-A33C41F49E45}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="155">
   <si>
     <t>ID_Venda</t>
   </si>
@@ -475,6 +475,21 @@
   <si>
     <t>Q4</t>
   </si>
+  <si>
+    <t>Motivo_Devolucao</t>
+  </si>
+  <si>
+    <t>Defeito</t>
+  </si>
+  <si>
+    <t>Arrependimento</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Produto Errado</t>
+  </si>
 </sst>
 </file>
 
@@ -556,6 +571,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,16 +864,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I501"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +904,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -905,8 +933,11 @@
       <c r="H2">
         <v>2200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,8 +962,11 @@
       <c r="H3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -957,8 +991,11 @@
       <c r="H4">
         <v>14000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -983,8 +1020,11 @@
       <c r="H5">
         <v>3600</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1009,8 +1049,11 @@
       <c r="H6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1035,8 +1078,11 @@
       <c r="H7">
         <v>17500</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1061,8 +1107,11 @@
       <c r="H8">
         <v>1200</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1087,8 +1136,11 @@
       <c r="H9">
         <v>11200</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1113,8 +1165,11 @@
       <c r="H10">
         <v>6400</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1139,8 +1194,11 @@
       <c r="H11">
         <v>3500</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1165,8 +1223,11 @@
       <c r="H12">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1191,8 +1252,11 @@
       <c r="H13">
         <v>1800</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1217,8 +1281,11 @@
       <c r="H14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1243,8 +1310,11 @@
       <c r="H15">
         <v>3600</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1269,8 +1339,11 @@
       <c r="H16">
         <v>1500</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1295,8 +1368,11 @@
       <c r="H17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1321,8 +1397,11 @@
       <c r="H18">
         <v>600</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1347,8 +1426,11 @@
       <c r="H19">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1373,8 +1455,11 @@
       <c r="H20">
         <v>2400</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1399,8 +1484,11 @@
       <c r="H21">
         <v>900</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1425,8 +1513,11 @@
       <c r="H22">
         <v>14000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1451,8 +1542,11 @@
       <c r="H23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1477,8 +1571,11 @@
       <c r="H24">
         <v>2400</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1503,8 +1600,11 @@
       <c r="H25">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1529,8 +1629,11 @@
       <c r="H26">
         <v>3000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1555,8 +1658,11 @@
       <c r="H27">
         <v>10500</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1581,8 +1687,11 @@
       <c r="H28">
         <v>7500</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1607,8 +1716,11 @@
       <c r="H29">
         <v>2800</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1633,8 +1745,11 @@
       <c r="H30">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1659,8 +1774,11 @@
       <c r="H31">
         <v>12500</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1685,8 +1803,11 @@
       <c r="H32">
         <v>600</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1711,8 +1832,11 @@
       <c r="H33">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1737,8 +1861,11 @@
       <c r="H34">
         <v>2400</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1763,8 +1890,11 @@
       <c r="H35">
         <v>2400</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1789,8 +1919,11 @@
       <c r="H36">
         <v>4800</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1815,8 +1948,11 @@
       <c r="H37">
         <v>600</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1841,8 +1977,11 @@
       <c r="H38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1867,8 +2006,11 @@
       <c r="H39">
         <v>2000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1893,8 +2035,11 @@
       <c r="H40">
         <v>1350</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1919,8 +2064,11 @@
       <c r="H41">
         <v>1350</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1945,8 +2093,11 @@
       <c r="H42">
         <v>8800</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1971,8 +2122,11 @@
       <c r="H43">
         <v>900</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1997,8 +2151,11 @@
       <c r="H44">
         <v>400</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2023,8 +2180,11 @@
       <c r="H45">
         <v>6600</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2049,8 +2209,11 @@
       <c r="H46">
         <v>2200</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2075,8 +2238,11 @@
       <c r="H47">
         <v>1200</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2101,8 +2267,11 @@
       <c r="H48">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2127,8 +2296,11 @@
       <c r="H49">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2153,8 +2325,11 @@
       <c r="H50">
         <v>4400</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2179,8 +2354,11 @@
       <c r="H51">
         <v>2400</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2205,8 +2383,11 @@
       <c r="H52">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2231,8 +2412,11 @@
       <c r="H53">
         <v>2400</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2257,8 +2441,11 @@
       <c r="H54">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2283,8 +2470,11 @@
       <c r="H55">
         <v>750</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2309,8 +2499,11 @@
       <c r="H56">
         <v>1800</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2335,8 +2528,11 @@
       <c r="H57">
         <v>6000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2361,8 +2557,11 @@
       <c r="H58">
         <v>1500</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2387,8 +2586,11 @@
       <c r="H59">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2413,8 +2615,11 @@
       <c r="H60">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2439,8 +2644,11 @@
       <c r="H61">
         <v>2500</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2465,8 +2673,11 @@
       <c r="H62">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2491,8 +2702,11 @@
       <c r="H63">
         <v>400</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2517,8 +2731,11 @@
       <c r="H64">
         <v>7500</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2543,8 +2760,11 @@
       <c r="H65">
         <v>1800</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2569,8 +2789,11 @@
       <c r="H66">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2595,8 +2818,11 @@
       <c r="H67">
         <v>7500</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2621,8 +2847,11 @@
       <c r="H68">
         <v>8400</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2647,8 +2876,11 @@
       <c r="H69">
         <v>600</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2673,8 +2905,11 @@
       <c r="H70">
         <v>10000</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2699,8 +2934,11 @@
       <c r="H71">
         <v>2200</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2725,8 +2963,11 @@
       <c r="H72">
         <v>1500</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2751,8 +2992,11 @@
       <c r="H73">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2777,8 +3021,11 @@
       <c r="H74">
         <v>4000</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2803,8 +3050,11 @@
       <c r="H75">
         <v>1200</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2829,8 +3079,11 @@
       <c r="H76">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2855,8 +3108,11 @@
       <c r="H77">
         <v>4500</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2881,8 +3137,11 @@
       <c r="H78">
         <v>1500</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2907,8 +3166,11 @@
       <c r="H79">
         <v>7500</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2933,8 +3195,11 @@
       <c r="H80">
         <v>10500</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2959,8 +3224,11 @@
       <c r="H81">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2985,8 +3253,11 @@
       <c r="H82">
         <v>1200</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3011,8 +3282,11 @@
       <c r="H83">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3037,8 +3311,11 @@
       <c r="H84">
         <v>2400</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3063,8 +3340,11 @@
       <c r="H85">
         <v>3000</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3089,8 +3369,11 @@
       <c r="H86">
         <v>5600</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3115,8 +3398,11 @@
       <c r="H87">
         <v>6400</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3141,8 +3427,11 @@
       <c r="H88">
         <v>9600</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3167,8 +3456,11 @@
       <c r="H89">
         <v>1200</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3193,8 +3485,11 @@
       <c r="H90">
         <v>17500</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3219,8 +3514,11 @@
       <c r="H91">
         <v>5600</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3245,8 +3543,11 @@
       <c r="H92">
         <v>1800</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3271,8 +3572,11 @@
       <c r="H93">
         <v>2500</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3297,8 +3601,11 @@
       <c r="H94">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3323,8 +3630,11 @@
       <c r="H95">
         <v>4800</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3349,8 +3659,11 @@
       <c r="H96">
         <v>4500</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3375,8 +3688,11 @@
       <c r="H97">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3401,8 +3717,11 @@
       <c r="H98">
         <v>2250</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3427,8 +3746,11 @@
       <c r="H99">
         <v>6000</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3453,8 +3775,11 @@
       <c r="H100">
         <v>2800</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3479,8 +3804,11 @@
       <c r="H101">
         <v>4000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3505,8 +3833,11 @@
       <c r="H102">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3531,8 +3862,11 @@
       <c r="H103">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3557,8 +3891,11 @@
       <c r="H104">
         <v>1350</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3583,8 +3920,11 @@
       <c r="H105">
         <v>3000</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3609,8 +3949,11 @@
       <c r="H106">
         <v>1500</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3635,8 +3978,11 @@
       <c r="H107">
         <v>900</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3661,8 +4007,11 @@
       <c r="H108">
         <v>200</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3687,8 +4036,11 @@
       <c r="H109">
         <v>1200</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3713,8 +4065,11 @@
       <c r="H110">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3739,8 +4094,11 @@
       <c r="H111">
         <v>900</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3765,8 +4123,11 @@
       <c r="H112">
         <v>11200</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3791,8 +4152,11 @@
       <c r="H113">
         <v>6600</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3817,8 +4181,11 @@
       <c r="H114">
         <v>7500</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3843,8 +4210,11 @@
       <c r="H115">
         <v>2250</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3869,8 +4239,11 @@
       <c r="H116">
         <v>2000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3895,8 +4268,11 @@
       <c r="H117">
         <v>2200</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3921,8 +4297,11 @@
       <c r="H118">
         <v>1000</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3947,8 +4326,11 @@
       <c r="H119">
         <v>1800</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3973,8 +4355,11 @@
       <c r="H120">
         <v>2400</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3999,8 +4384,11 @@
       <c r="H121">
         <v>6000</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4025,8 +4413,11 @@
       <c r="H122">
         <v>1200</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4051,8 +4442,11 @@
       <c r="H123">
         <v>900</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4077,8 +4471,11 @@
       <c r="H124">
         <v>300</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4103,8 +4500,11 @@
       <c r="H125">
         <v>2400</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4129,8 +4529,11 @@
       <c r="H126">
         <v>1200</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4155,8 +4558,11 @@
       <c r="H127">
         <v>7000</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4181,8 +4587,11 @@
       <c r="H128">
         <v>8400</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4207,8 +4616,11 @@
       <c r="H129">
         <v>7500</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4233,8 +4645,11 @@
       <c r="H130">
         <v>6400</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4259,8 +4674,11 @@
       <c r="H131">
         <v>2800</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4285,8 +4703,11 @@
       <c r="H132">
         <v>5000</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4311,8 +4732,11 @@
       <c r="H133">
         <v>4500</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4337,8 +4761,11 @@
       <c r="H134">
         <v>300</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4363,8 +4790,11 @@
       <c r="H135">
         <v>5600</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4389,8 +4819,11 @@
       <c r="H136">
         <v>450</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4415,8 +4848,11 @@
       <c r="H137">
         <v>6000</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4441,8 +4877,11 @@
       <c r="H138">
         <v>8400</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I138" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4467,8 +4906,11 @@
       <c r="H139">
         <v>1600</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I139" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4493,8 +4935,11 @@
       <c r="H140">
         <v>9600</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I140" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4519,8 +4964,11 @@
       <c r="H141">
         <v>500</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4545,8 +4993,11 @@
       <c r="H142">
         <v>2000</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I142" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4571,8 +5022,11 @@
       <c r="H143">
         <v>400</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I143" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4597,8 +5051,11 @@
       <c r="H144">
         <v>6600</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I144" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4623,8 +5080,11 @@
       <c r="H145">
         <v>1800</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4649,8 +5109,11 @@
       <c r="H146">
         <v>1600</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4675,8 +5138,11 @@
       <c r="H147">
         <v>3500</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4701,8 +5167,11 @@
       <c r="H148">
         <v>14000</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4727,8 +5196,11 @@
       <c r="H149">
         <v>6000</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4753,8 +5225,11 @@
       <c r="H150">
         <v>500</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4779,8 +5254,11 @@
       <c r="H151">
         <v>2500</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4805,8 +5283,11 @@
       <c r="H152">
         <v>600</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4831,8 +5312,11 @@
       <c r="H153">
         <v>2500</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I153" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4857,8 +5341,11 @@
       <c r="H154">
         <v>7500</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4883,8 +5370,11 @@
       <c r="H155">
         <v>1200</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4909,8 +5399,11 @@
       <c r="H156">
         <v>450</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4935,8 +5428,11 @@
       <c r="H157">
         <v>450</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4961,8 +5457,11 @@
       <c r="H158">
         <v>1600</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4987,8 +5486,11 @@
       <c r="H159">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I159" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5013,8 +5515,11 @@
       <c r="H160">
         <v>3600</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I160" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5039,8 +5544,11 @@
       <c r="H161">
         <v>8800</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I161" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5065,8 +5573,11 @@
       <c r="H162">
         <v>2250</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5091,8 +5602,11 @@
       <c r="H163">
         <v>3000</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5117,8 +5631,11 @@
       <c r="H164">
         <v>300</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5143,8 +5660,11 @@
       <c r="H165">
         <v>1250</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I165" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5169,8 +5689,11 @@
       <c r="H166">
         <v>2200</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I166" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5195,8 +5718,11 @@
       <c r="H167">
         <v>1500</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I167" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5221,8 +5747,11 @@
       <c r="H168">
         <v>2800</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I168" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5247,8 +5776,11 @@
       <c r="H169">
         <v>2800</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I169" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5273,8 +5805,11 @@
       <c r="H170">
         <v>9600</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I170" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5299,8 +5834,11 @@
       <c r="H171">
         <v>2500</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I171" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5325,8 +5863,11 @@
       <c r="H172">
         <v>2400</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I172" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5351,8 +5892,11 @@
       <c r="H173">
         <v>1400</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I173" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5377,8 +5921,11 @@
       <c r="H174">
         <v>17500</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5403,8 +5950,11 @@
       <c r="H175">
         <v>3500</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I175" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5429,8 +5979,11 @@
       <c r="H176">
         <v>6400</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I176" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5455,8 +6008,11 @@
       <c r="H177">
         <v>5600</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5481,8 +6037,11 @@
       <c r="H178">
         <v>4500</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I178" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5507,8 +6066,11 @@
       <c r="H179">
         <v>5600</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I179" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5533,8 +6095,11 @@
       <c r="H180">
         <v>1200</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5559,8 +6124,11 @@
       <c r="H181">
         <v>1200</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I181" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5585,8 +6153,11 @@
       <c r="H182">
         <v>6000</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I182" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5611,8 +6182,11 @@
       <c r="H183">
         <v>800</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I183" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5637,8 +6211,11 @@
       <c r="H184">
         <v>1000</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5663,8 +6240,11 @@
       <c r="H185">
         <v>2400</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I185" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5689,8 +6269,11 @@
       <c r="H186">
         <v>6000</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I186" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5715,8 +6298,11 @@
       <c r="H187">
         <v>1500</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I187" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5741,8 +6327,11 @@
       <c r="H188">
         <v>900</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I188" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5767,8 +6356,11 @@
       <c r="H189">
         <v>2500</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I189" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5793,8 +6385,11 @@
       <c r="H190">
         <v>4500</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I190" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5819,8 +6414,11 @@
       <c r="H191">
         <v>1800</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I191" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5845,8 +6443,11 @@
       <c r="H192">
         <v>3000</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I192" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5871,8 +6472,11 @@
       <c r="H193">
         <v>3500</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I193" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5897,8 +6501,11 @@
       <c r="H194">
         <v>11200</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5923,8 +6530,11 @@
       <c r="H195">
         <v>1250</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I195" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5949,8 +6559,11 @@
       <c r="H196">
         <v>250</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I196" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5975,8 +6588,11 @@
       <c r="H197">
         <v>3500</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I197" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6001,8 +6617,11 @@
       <c r="H198">
         <v>2200</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I198" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6027,8 +6646,11 @@
       <c r="H199">
         <v>1200</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I199" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6053,8 +6675,11 @@
       <c r="H200">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I200" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6079,8 +6704,11 @@
       <c r="H201">
         <v>750</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I201" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6105,8 +6733,11 @@
       <c r="H202">
         <v>5600</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I202" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6131,8 +6762,11 @@
       <c r="H203">
         <v>14000</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I203" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6157,8 +6791,11 @@
       <c r="H204">
         <v>2800</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I204" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6183,8 +6820,11 @@
       <c r="H205">
         <v>11200</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6209,8 +6849,11 @@
       <c r="H206">
         <v>400</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I206" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6235,8 +6878,11 @@
       <c r="H207">
         <v>10000</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I207" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6261,8 +6907,11 @@
       <c r="H208">
         <v>200</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I208" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6287,8 +6936,11 @@
       <c r="H209">
         <v>3200</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I209" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6313,8 +6965,11 @@
       <c r="H210">
         <v>700</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I210" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6339,8 +6994,11 @@
       <c r="H211">
         <v>1400</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I211" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6365,8 +7023,11 @@
       <c r="H212">
         <v>1000</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I212" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6391,8 +7052,11 @@
       <c r="H213">
         <v>900</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I213" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6417,8 +7081,11 @@
       <c r="H214">
         <v>11200</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I214" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6443,8 +7110,11 @@
       <c r="H215">
         <v>6000</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I215" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6469,8 +7139,11 @@
       <c r="H216">
         <v>2400</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I216" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6495,8 +7168,11 @@
       <c r="H217">
         <v>800</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I217" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6521,8 +7197,11 @@
       <c r="H218">
         <v>8400</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I218" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6547,8 +7226,11 @@
       <c r="H219">
         <v>6600</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I219" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6573,8 +7255,11 @@
       <c r="H220">
         <v>1800</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I220" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6599,8 +7284,11 @@
       <c r="H221">
         <v>300</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I221" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6625,8 +7313,11 @@
       <c r="H222">
         <v>200</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I222" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6651,8 +7342,11 @@
       <c r="H223">
         <v>4000</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6677,8 +7371,11 @@
       <c r="H224">
         <v>11000</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I224" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6703,8 +7400,11 @@
       <c r="H225">
         <v>2400</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I225" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6729,8 +7429,11 @@
       <c r="H226">
         <v>100</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I226" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6755,8 +7458,11 @@
       <c r="H227">
         <v>6000</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I227" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -6781,8 +7487,11 @@
       <c r="H228">
         <v>2800</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I228" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -6807,8 +7516,11 @@
       <c r="H229">
         <v>900</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I229" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -6833,8 +7545,11 @@
       <c r="H230">
         <v>1800</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I230" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -6859,8 +7574,11 @@
       <c r="H231">
         <v>1800</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I231" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -6885,8 +7603,11 @@
       <c r="H232">
         <v>200</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I232" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -6911,8 +7632,11 @@
       <c r="H233">
         <v>2200</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I233" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -6937,8 +7661,11 @@
       <c r="H234">
         <v>4800</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I234" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -6963,8 +7690,11 @@
       <c r="H235">
         <v>600</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -6989,8 +7719,11 @@
       <c r="H236">
         <v>7500</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I236" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7015,8 +7748,11 @@
       <c r="H237">
         <v>250</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I237" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7041,8 +7777,11 @@
       <c r="H238">
         <v>11200</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I238" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7067,8 +7806,11 @@
       <c r="H239">
         <v>800</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I239" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7093,8 +7835,11 @@
       <c r="H240">
         <v>750</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I240" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7119,8 +7864,11 @@
       <c r="H241">
         <v>8400</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I241" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7145,8 +7893,11 @@
       <c r="H242">
         <v>16000</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I242" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7171,8 +7922,11 @@
       <c r="H243">
         <v>1400</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I243" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7197,8 +7951,11 @@
       <c r="H244">
         <v>1500</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I244" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7223,8 +7980,11 @@
       <c r="H245">
         <v>2100</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I245" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7249,8 +8009,11 @@
       <c r="H246">
         <v>500</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I246" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7275,8 +8038,11 @@
       <c r="H247">
         <v>2000</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I247" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7301,8 +8067,11 @@
       <c r="H248">
         <v>2800</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I248" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7327,8 +8096,11 @@
       <c r="H249">
         <v>12800</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I249" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7353,8 +8125,11 @@
       <c r="H250">
         <v>2200</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I250" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7379,8 +8154,11 @@
       <c r="H251">
         <v>150</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I251" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7405,8 +8183,11 @@
       <c r="H252">
         <v>3200</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I252" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7431,8 +8212,11 @@
       <c r="H253">
         <v>2200</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I253" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7457,8 +8241,11 @@
       <c r="H254">
         <v>400</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I254" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7483,8 +8270,11 @@
       <c r="H255">
         <v>400</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I255" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7509,8 +8299,11 @@
       <c r="H256">
         <v>2400</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I256" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7535,8 +8328,11 @@
       <c r="H257">
         <v>400</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I257" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7561,8 +8357,11 @@
       <c r="H258">
         <v>2200</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I258" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7587,8 +8386,11 @@
       <c r="H259">
         <v>100</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I259" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7613,8 +8415,11 @@
       <c r="H260">
         <v>1200</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I260" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7639,8 +8444,11 @@
       <c r="H261">
         <v>4500</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I261" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7665,8 +8473,11 @@
       <c r="H262">
         <v>3200</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I262" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7691,8 +8502,11 @@
       <c r="H263">
         <v>1200</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I263" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7717,8 +8531,11 @@
       <c r="H264">
         <v>400</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I264" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7743,8 +8560,11 @@
       <c r="H265">
         <v>2800</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I265" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7769,8 +8589,11 @@
       <c r="H266">
         <v>800</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I266" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7795,8 +8618,11 @@
       <c r="H267">
         <v>2800</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I267" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7821,8 +8647,11 @@
       <c r="H268">
         <v>2500</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I268" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7847,8 +8676,11 @@
       <c r="H269">
         <v>5600</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I269" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7873,8 +8705,11 @@
       <c r="H270">
         <v>2400</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I270" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -7899,8 +8734,11 @@
       <c r="H271">
         <v>2800</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I271" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -7925,8 +8763,11 @@
       <c r="H272">
         <v>1800</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I272" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -7951,8 +8792,11 @@
       <c r="H273">
         <v>3600</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I273" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -7977,8 +8821,11 @@
       <c r="H274">
         <v>1800</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I274" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8003,8 +8850,11 @@
       <c r="H275">
         <v>6000</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I275" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8029,8 +8879,11 @@
       <c r="H276">
         <v>1400</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I276" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8055,8 +8908,11 @@
       <c r="H277">
         <v>8800</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I277" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8081,8 +8937,11 @@
       <c r="H278">
         <v>10000</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I278" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8107,8 +8966,11 @@
       <c r="H279">
         <v>3200</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I279" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8133,8 +8995,11 @@
       <c r="H280">
         <v>1600</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I280" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8159,8 +9024,11 @@
       <c r="H281">
         <v>200</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I281" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8185,8 +9053,11 @@
       <c r="H282">
         <v>11000</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I282" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8211,8 +9082,11 @@
       <c r="H283">
         <v>2000</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I283" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8237,8 +9111,11 @@
       <c r="H284">
         <v>2500</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I284" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8263,8 +9140,11 @@
       <c r="H285">
         <v>300</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I285" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8289,8 +9169,11 @@
       <c r="H286">
         <v>600</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I286" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8315,8 +9198,11 @@
       <c r="H287">
         <v>900</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I287" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8341,8 +9227,11 @@
       <c r="H288">
         <v>600</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I288" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8367,8 +9256,11 @@
       <c r="H289">
         <v>600</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I289" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8393,8 +9285,11 @@
       <c r="H290">
         <v>2800</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I290" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8419,8 +9314,11 @@
       <c r="H291">
         <v>2000</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I291" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8445,8 +9343,11 @@
       <c r="H292">
         <v>3200</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I292" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8471,8 +9372,11 @@
       <c r="H293">
         <v>2700</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I293" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8497,8 +9401,11 @@
       <c r="H294">
         <v>900</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I294" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8523,8 +9430,11 @@
       <c r="H295">
         <v>700</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I295" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8549,8 +9459,11 @@
       <c r="H296">
         <v>2400</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I296" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8575,8 +9488,11 @@
       <c r="H297">
         <v>6000</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I297" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8601,8 +9517,11 @@
       <c r="H298">
         <v>14000</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I298" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8627,8 +9546,11 @@
       <c r="H299">
         <v>2000</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I299" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8653,8 +9575,11 @@
       <c r="H300">
         <v>7500</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I300" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8679,8 +9604,11 @@
       <c r="H301">
         <v>3000</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I301" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -8705,8 +9633,11 @@
       <c r="H302">
         <v>750</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I302" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -8731,8 +9662,11 @@
       <c r="H303">
         <v>11200</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I303" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -8757,8 +9691,11 @@
       <c r="H304">
         <v>1350</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I304" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -8783,8 +9720,11 @@
       <c r="H305">
         <v>450</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I305" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -8809,8 +9749,11 @@
       <c r="H306">
         <v>10500</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I306" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -8835,8 +9778,11 @@
       <c r="H307">
         <v>450</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I307" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -8861,8 +9807,11 @@
       <c r="H308">
         <v>1500</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I308" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -8887,8 +9836,11 @@
       <c r="H309">
         <v>2100</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I309" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -8913,8 +9865,11 @@
       <c r="H310">
         <v>3500</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I310" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -8939,8 +9894,11 @@
       <c r="H311">
         <v>3200</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I311" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -8965,8 +9923,11 @@
       <c r="H312">
         <v>14000</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I312" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -8991,8 +9952,11 @@
       <c r="H313">
         <v>2400</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I313" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -9017,8 +9981,11 @@
       <c r="H314">
         <v>2400</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I314" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -9043,8 +10010,11 @@
       <c r="H315">
         <v>200</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I315" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -9069,8 +10039,11 @@
       <c r="H316">
         <v>300</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I316" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -9095,8 +10068,11 @@
       <c r="H317">
         <v>6000</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I317" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -9121,8 +10097,11 @@
       <c r="H318">
         <v>14000</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I318" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -9147,8 +10126,11 @@
       <c r="H319">
         <v>2500</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I319" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -9173,8 +10155,11 @@
       <c r="H320">
         <v>8800</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I320" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -9199,8 +10184,11 @@
       <c r="H321">
         <v>9600</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I321" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -9225,8 +10213,11 @@
       <c r="H322">
         <v>1600</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I322" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -9251,8 +10242,11 @@
       <c r="H323">
         <v>2800</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I323" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -9277,8 +10271,11 @@
       <c r="H324">
         <v>900</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I324" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -9303,8 +10300,11 @@
       <c r="H325">
         <v>2800</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I325" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -9329,8 +10329,11 @@
       <c r="H326">
         <v>900</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I326" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -9355,8 +10358,11 @@
       <c r="H327">
         <v>3600</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I327" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -9381,8 +10387,11 @@
       <c r="H328">
         <v>1200</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I328" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -9407,8 +10416,11 @@
       <c r="H329">
         <v>150</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I329" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -9433,8 +10445,11 @@
       <c r="H330">
         <v>17500</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I330" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -9459,8 +10474,11 @@
       <c r="H331">
         <v>7000</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I331" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -9485,8 +10503,11 @@
       <c r="H332">
         <v>8400</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I332" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -9511,8 +10532,11 @@
       <c r="H333">
         <v>8800</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I333" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -9537,8 +10561,11 @@
       <c r="H334">
         <v>3000</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I334" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -9563,8 +10590,11 @@
       <c r="H335">
         <v>12800</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I335" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -9589,8 +10619,11 @@
       <c r="H336">
         <v>500</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I336" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -9615,8 +10648,11 @@
       <c r="H337">
         <v>7500</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I337" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -9641,8 +10677,11 @@
       <c r="H338">
         <v>5600</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I338" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -9667,8 +10706,11 @@
       <c r="H339">
         <v>11000</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I339" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -9693,8 +10735,11 @@
       <c r="H340">
         <v>3200</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I340" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -9719,8 +10764,11 @@
       <c r="H341">
         <v>400</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I341" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -9745,8 +10793,11 @@
       <c r="H342">
         <v>400</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I342" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -9771,8 +10822,11 @@
       <c r="H343">
         <v>1000</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I343" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -9797,8 +10851,11 @@
       <c r="H344">
         <v>4500</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I344" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -9823,8 +10880,11 @@
       <c r="H345">
         <v>250</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I345" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -9849,8 +10909,11 @@
       <c r="H346">
         <v>11200</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I346" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -9875,8 +10938,11 @@
       <c r="H347">
         <v>2500</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I347" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -9901,8 +10967,11 @@
       <c r="H348">
         <v>3600</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I348" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -9927,8 +10996,11 @@
       <c r="H349">
         <v>200</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I349" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -9953,8 +11025,11 @@
       <c r="H350">
         <v>3500</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I350" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -9979,8 +11054,11 @@
       <c r="H351">
         <v>6400</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I351" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -10005,8 +11083,11 @@
       <c r="H352">
         <v>12800</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I352" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -10031,8 +11112,11 @@
       <c r="H353">
         <v>1500</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I353" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -10057,8 +11141,11 @@
       <c r="H354">
         <v>4500</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I354" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -10083,8 +11170,11 @@
       <c r="H355">
         <v>150</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I355" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -10109,8 +11199,11 @@
       <c r="H356">
         <v>5600</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I356" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -10135,8 +11228,11 @@
       <c r="H357">
         <v>750</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I357" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -10161,8 +11257,11 @@
       <c r="H358">
         <v>16000</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I358" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -10187,8 +11286,11 @@
       <c r="H359">
         <v>12500</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I359" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -10213,8 +11315,11 @@
       <c r="H360">
         <v>400</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I360" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -10239,8 +11344,11 @@
       <c r="H361">
         <v>6600</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I361" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -10265,8 +11373,11 @@
       <c r="H362">
         <v>6000</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I362" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -10291,8 +11402,11 @@
       <c r="H363">
         <v>11200</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I363" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -10317,8 +11431,11 @@
       <c r="H364">
         <v>3500</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I364" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -10343,8 +11460,11 @@
       <c r="H365">
         <v>100</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I365" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -10369,8 +11489,11 @@
       <c r="H366">
         <v>800</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I366" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -10395,8 +11518,11 @@
       <c r="H367">
         <v>3600</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I367" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -10421,8 +11547,11 @@
       <c r="H368">
         <v>7500</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I368" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -10447,8 +11576,11 @@
       <c r="H369">
         <v>600</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I369" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -10473,8 +11605,11 @@
       <c r="H370">
         <v>12800</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I370" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -10499,8 +11634,11 @@
       <c r="H371">
         <v>2200</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I371" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -10525,8 +11663,11 @@
       <c r="H372">
         <v>2800</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I372" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -10551,8 +11692,11 @@
       <c r="H373">
         <v>9600</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I373" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -10577,8 +11721,11 @@
       <c r="H374">
         <v>2800</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I374" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -10603,8 +11750,11 @@
       <c r="H375">
         <v>7500</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I375" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -10629,8 +11779,11 @@
       <c r="H376">
         <v>12500</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I376" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -10655,8 +11808,11 @@
       <c r="H377">
         <v>3000</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I377" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -10681,8 +11837,11 @@
       <c r="H378">
         <v>2400</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I378" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -10707,8 +11866,11 @@
       <c r="H379">
         <v>600</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I379" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -10733,8 +11895,11 @@
       <c r="H380">
         <v>11200</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I380" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -10759,8 +11924,11 @@
       <c r="H381">
         <v>12800</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I381" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -10785,8 +11953,11 @@
       <c r="H382">
         <v>6600</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I382" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -10811,8 +11982,11 @@
       <c r="H383">
         <v>1800</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I383" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -10837,8 +12011,11 @@
       <c r="H384">
         <v>1400</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I384" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -10863,8 +12040,11 @@
       <c r="H385">
         <v>8800</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I385" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -10889,8 +12069,11 @@
       <c r="H386">
         <v>300</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I386" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -10915,8 +12098,11 @@
       <c r="H387">
         <v>2400</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I387" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -10941,8 +12127,11 @@
       <c r="H388">
         <v>11000</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I388" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -10967,8 +12156,11 @@
       <c r="H389">
         <v>800</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I389" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -10993,8 +12185,11 @@
       <c r="H390">
         <v>3000</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I390" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -11019,8 +12214,11 @@
       <c r="H391">
         <v>14000</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I391" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -11045,8 +12243,11 @@
       <c r="H392">
         <v>1200</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I392" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -11071,8 +12272,11 @@
       <c r="H393">
         <v>16000</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I393" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -11097,8 +12301,11 @@
       <c r="H394">
         <v>3600</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I394" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -11123,8 +12330,11 @@
       <c r="H395">
         <v>7000</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I395" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -11149,8 +12359,11 @@
       <c r="H396">
         <v>1000</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I396" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -11175,8 +12388,11 @@
       <c r="H397">
         <v>600</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I397" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -11201,8 +12417,11 @@
       <c r="H398">
         <v>800</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I398" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -11227,8 +12446,11 @@
       <c r="H399">
         <v>11000</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I399" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -11253,8 +12475,11 @@
       <c r="H400">
         <v>3600</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I400" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -11279,8 +12504,11 @@
       <c r="H401">
         <v>500</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I401" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -11305,8 +12533,11 @@
       <c r="H402">
         <v>3500</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I402" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -11331,8 +12562,11 @@
       <c r="H403">
         <v>400</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I403" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -11357,8 +12591,11 @@
       <c r="H404">
         <v>7500</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I404" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -11383,8 +12620,11 @@
       <c r="H405">
         <v>2100</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I405" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -11409,8 +12649,11 @@
       <c r="H406">
         <v>7500</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I406" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -11435,8 +12678,11 @@
       <c r="H407">
         <v>450</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I407" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -11461,8 +12707,11 @@
       <c r="H408">
         <v>5000</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I408" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -11487,8 +12736,11 @@
       <c r="H409">
         <v>3500</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I409" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -11513,8 +12765,11 @@
       <c r="H410">
         <v>1600</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I410" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -11539,8 +12794,11 @@
       <c r="H411">
         <v>1000</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I411" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -11565,8 +12823,11 @@
       <c r="H412">
         <v>4000</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I412" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -11591,8 +12852,11 @@
       <c r="H413">
         <v>2400</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I413" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -11617,8 +12881,11 @@
       <c r="H414">
         <v>600</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I414" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -11643,8 +12910,11 @@
       <c r="H415">
         <v>6000</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I415" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -11669,8 +12939,11 @@
       <c r="H416">
         <v>800</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I416" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -11695,8 +12968,11 @@
       <c r="H417">
         <v>3600</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I417" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -11721,8 +12997,11 @@
       <c r="H418">
         <v>8800</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I418" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -11747,8 +13026,11 @@
       <c r="H419">
         <v>2250</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I419" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -11773,8 +13055,11 @@
       <c r="H420">
         <v>11200</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I420" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -11799,8 +13084,11 @@
       <c r="H421">
         <v>8800</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I421" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -11825,8 +13113,11 @@
       <c r="H422">
         <v>800</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I422" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -11851,8 +13142,11 @@
       <c r="H423">
         <v>400</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I423" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -11877,8 +13171,11 @@
       <c r="H424">
         <v>1000</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I424" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -11903,8 +13200,11 @@
       <c r="H425">
         <v>750</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I425" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -11929,8 +13229,11 @@
       <c r="H426">
         <v>1000</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I426" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -11955,8 +13258,11 @@
       <c r="H427">
         <v>3000</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I427" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -11981,8 +13287,11 @@
       <c r="H428">
         <v>300</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I428" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -12007,8 +13316,11 @@
       <c r="H429">
         <v>3500</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I429" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -12033,8 +13345,11 @@
       <c r="H430">
         <v>750</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I430" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -12059,8 +13374,11 @@
       <c r="H431">
         <v>2800</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I431" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -12085,8 +13403,11 @@
       <c r="H432">
         <v>1000</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I432" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -12111,8 +13432,11 @@
       <c r="H433">
         <v>14000</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I433" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -12137,8 +13461,11 @@
       <c r="H434">
         <v>4000</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I434" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -12163,8 +13490,11 @@
       <c r="H435">
         <v>14000</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I435" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -12189,8 +13519,11 @@
       <c r="H436">
         <v>200</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I436" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -12215,8 +13548,11 @@
       <c r="H437">
         <v>17500</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I437" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -12241,8 +13577,11 @@
       <c r="H438">
         <v>400</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I438" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -12267,8 +13606,11 @@
       <c r="H439">
         <v>8800</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I439" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -12293,8 +13635,11 @@
       <c r="H440">
         <v>10500</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I440" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -12319,8 +13664,11 @@
       <c r="H441">
         <v>6600</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I441" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -12345,8 +13693,11 @@
       <c r="H442">
         <v>1500</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I442" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -12371,8 +13722,11 @@
       <c r="H443">
         <v>100</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I443" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -12397,8 +13751,11 @@
       <c r="H444">
         <v>1600</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I444" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -12423,8 +13780,11 @@
       <c r="H445">
         <v>450</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I445" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -12449,8 +13809,11 @@
       <c r="H446">
         <v>8800</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I446" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -12475,8 +13838,11 @@
       <c r="H447">
         <v>3000</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I447" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -12501,8 +13867,11 @@
       <c r="H448">
         <v>6000</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I448" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -12527,8 +13896,11 @@
       <c r="H449">
         <v>200</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I449" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -12553,8 +13925,11 @@
       <c r="H450">
         <v>500</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I450" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -12579,8 +13954,11 @@
       <c r="H451">
         <v>800</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I451" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -12605,8 +13983,11 @@
       <c r="H452">
         <v>2800</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I452" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -12631,8 +14012,11 @@
       <c r="H453">
         <v>2800</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I453" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -12657,8 +14041,11 @@
       <c r="H454">
         <v>8400</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I454" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -12683,8 +14070,11 @@
       <c r="H455">
         <v>100</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I455" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -12709,8 +14099,11 @@
       <c r="H456">
         <v>2800</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I456" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -12735,8 +14128,11 @@
       <c r="H457">
         <v>600</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I457" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -12761,8 +14157,11 @@
       <c r="H458">
         <v>5000</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I458" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -12787,8 +14186,11 @@
       <c r="H459">
         <v>100</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I459" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -12813,8 +14215,11 @@
       <c r="H460">
         <v>1250</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I460" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -12839,8 +14244,11 @@
       <c r="H461">
         <v>1800</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I461" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -12865,8 +14273,11 @@
       <c r="H462">
         <v>1800</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I462" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -12891,8 +14302,11 @@
       <c r="H463">
         <v>8800</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I463" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -12917,8 +14331,11 @@
       <c r="H464">
         <v>200</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I464" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -12943,8 +14360,11 @@
       <c r="H465">
         <v>4500</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I465" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -12969,8 +14389,11 @@
       <c r="H466">
         <v>150</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I466" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -12995,8 +14418,11 @@
       <c r="H467">
         <v>600</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I467" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -13021,8 +14447,11 @@
       <c r="H468">
         <v>6400</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I468" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -13047,8 +14476,11 @@
       <c r="H469">
         <v>200</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I469" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -13073,8 +14505,11 @@
       <c r="H470">
         <v>2200</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I470" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -13099,8 +14534,11 @@
       <c r="H471">
         <v>6000</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I471" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -13125,8 +14563,11 @@
       <c r="H472">
         <v>4800</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I472" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -13151,8 +14592,11 @@
       <c r="H473">
         <v>400</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I473" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -13177,8 +14621,11 @@
       <c r="H474">
         <v>200</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I474" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -13203,8 +14650,11 @@
       <c r="H475">
         <v>1500</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I475" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -13229,8 +14679,11 @@
       <c r="H476">
         <v>1400</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I476" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -13255,8 +14708,11 @@
       <c r="H477">
         <v>8400</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I477" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -13281,8 +14737,11 @@
       <c r="H478">
         <v>800</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I478" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -13307,8 +14766,11 @@
       <c r="H479">
         <v>900</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I479" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -13333,8 +14795,11 @@
       <c r="H480">
         <v>400</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I480" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -13359,8 +14824,11 @@
       <c r="H481">
         <v>1000</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I481" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -13385,8 +14853,11 @@
       <c r="H482">
         <v>200</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I482" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -13411,8 +14882,11 @@
       <c r="H483">
         <v>1200</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I483" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -13437,8 +14911,11 @@
       <c r="H484">
         <v>12800</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I484" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -13463,8 +14940,11 @@
       <c r="H485">
         <v>11200</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I485" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -13489,8 +14969,11 @@
       <c r="H486">
         <v>2700</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I486" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -13515,8 +14998,11 @@
       <c r="H487">
         <v>1500</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I487" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -13541,8 +15027,11 @@
       <c r="H488">
         <v>2800</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I488" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -13567,8 +15056,11 @@
       <c r="H489">
         <v>1000</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I489" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -13593,8 +15085,11 @@
       <c r="H490">
         <v>700</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I490" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -13619,8 +15114,11 @@
       <c r="H491">
         <v>750</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I491" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -13645,8 +15143,11 @@
       <c r="H492">
         <v>4000</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I492" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -13671,8 +15172,11 @@
       <c r="H493">
         <v>300</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I493" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -13697,8 +15201,11 @@
       <c r="H494">
         <v>1000</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I494" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -13723,8 +15230,11 @@
       <c r="H495">
         <v>2400</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I495" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -13749,8 +15259,11 @@
       <c r="H496">
         <v>7500</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I496" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
@@ -13775,8 +15288,11 @@
       <c r="H497">
         <v>1800</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I497" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
@@ -13801,8 +15317,11 @@
       <c r="H498">
         <v>4500</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I498" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
@@ -13827,8 +15346,11 @@
       <c r="H499">
         <v>3000</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I499" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
@@ -13853,8 +15375,11 @@
       <c r="H500">
         <v>9600</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I500" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
@@ -13878,6 +15403,9 @@
       </c>
       <c r="H501">
         <v>4500</v>
+      </c>
+      <c r="I501" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Cases/Power BI/case 01/data/Dataset_Vendas.xlsx
+++ b/Cases/Power BI/case 01/data/Dataset_Vendas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/marco_alencastro_br_ey_com/Documents/Documents/Repos_Git/Analytics/Cases/Power BI/case 01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_3CE740194F92BCAD8F09588CF136E5CDCD5EFFED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A5AFAB-DB51-4F91-8886-A33C41F49E45}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_3CE740194F92BCAD8F09588CF136E5CDCD5EFFED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9420AE14-81DE-4796-9B0D-0611AE05DD9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I501"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +934,7 @@
         <v>2200</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -963,7 +963,7 @@
         <v>1600</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1021,7 +1021,7 @@
         <v>3600</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>2000</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1137,7 +1137,7 @@
         <v>11200</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1195,7 +1195,7 @@
         <v>3500</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1224,7 +1224,7 @@
         <v>2000</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>1800</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1456,7 +1456,7 @@
         <v>2400</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1514,7 +1514,7 @@
         <v>14000</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>2000</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1688,7 +1688,7 @@
         <v>7500</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1717,7 +1717,7 @@
         <v>2800</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1862,7 +1862,7 @@
         <v>2400</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1891,7 +1891,7 @@
         <v>2400</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1949,7 +1949,7 @@
         <v>600</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1978,7 +1978,7 @@
         <v>1000</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2065,7 +2065,7 @@
         <v>1350</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2123,7 +2123,7 @@
         <v>900</v>
       </c>
       <c r="I43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2239,7 +2239,7 @@
         <v>1200</v>
       </c>
       <c r="I47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2268,7 +2268,7 @@
         <v>900</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2355,7 +2355,7 @@
         <v>2400</v>
       </c>
       <c r="I51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2442,7 +2442,7 @@
         <v>300</v>
       </c>
       <c r="I54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2471,7 +2471,7 @@
         <v>750</v>
       </c>
       <c r="I55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2500,7 +2500,7 @@
         <v>1800</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2674,7 +2674,7 @@
         <v>500</v>
       </c>
       <c r="I62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2732,7 +2732,7 @@
         <v>7500</v>
       </c>
       <c r="I64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2761,7 +2761,7 @@
         <v>1800</v>
       </c>
       <c r="I65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2848,7 +2848,7 @@
         <v>8400</v>
       </c>
       <c r="I68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2964,7 +2964,7 @@
         <v>1500</v>
       </c>
       <c r="I72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3051,7 +3051,7 @@
         <v>1200</v>
       </c>
       <c r="I75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3167,7 +3167,7 @@
         <v>7500</v>
       </c>
       <c r="I79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3196,7 +3196,7 @@
         <v>10500</v>
       </c>
       <c r="I80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3225,7 +3225,7 @@
         <v>300</v>
       </c>
       <c r="I81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3254,7 +3254,7 @@
         <v>1200</v>
       </c>
       <c r="I82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3283,7 +3283,7 @@
         <v>1600</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3312,7 +3312,7 @@
         <v>2400</v>
       </c>
       <c r="I84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3341,7 +3341,7 @@
         <v>3000</v>
       </c>
       <c r="I85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,7 +3370,7 @@
         <v>5600</v>
       </c>
       <c r="I86" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3399,7 +3399,7 @@
         <v>6400</v>
       </c>
       <c r="I87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3428,7 +3428,7 @@
         <v>9600</v>
       </c>
       <c r="I88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3457,7 +3457,7 @@
         <v>1200</v>
       </c>
       <c r="I89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3486,7 +3486,7 @@
         <v>17500</v>
       </c>
       <c r="I90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3573,7 +3573,7 @@
         <v>2500</v>
       </c>
       <c r="I93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3631,7 +3631,7 @@
         <v>4800</v>
       </c>
       <c r="I95" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3660,7 +3660,7 @@
         <v>4500</v>
       </c>
       <c r="I96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
         <v>300</v>
       </c>
       <c r="I97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3718,7 +3718,7 @@
         <v>2250</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3834,7 +3834,7 @@
         <v>300</v>
       </c>
       <c r="I102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3863,7 +3863,7 @@
         <v>100</v>
       </c>
       <c r="I103" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -4008,7 +4008,7 @@
         <v>200</v>
       </c>
       <c r="I108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
         <v>800</v>
       </c>
       <c r="I110" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -4182,7 +4182,7 @@
         <v>7500</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -4211,7 +4211,7 @@
         <v>2250</v>
       </c>
       <c r="I115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4298,7 +4298,7 @@
         <v>1000</v>
       </c>
       <c r="I118" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4356,7 +4356,7 @@
         <v>2400</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4385,7 +4385,7 @@
         <v>6000</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -4414,7 +4414,7 @@
         <v>1200</v>
       </c>
       <c r="I122" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -4472,7 +4472,7 @@
         <v>300</v>
       </c>
       <c r="I124" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -4617,7 +4617,7 @@
         <v>7500</v>
       </c>
       <c r="I129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -4849,7 +4849,7 @@
         <v>6000</v>
       </c>
       <c r="I137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
@@ -4878,7 +4878,7 @@
         <v>8400</v>
       </c>
       <c r="I138" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
@@ -4907,7 +4907,7 @@
         <v>1600</v>
       </c>
       <c r="I139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -5081,7 +5081,7 @@
         <v>1800</v>
       </c>
       <c r="I145" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -5110,7 +5110,7 @@
         <v>1600</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -5197,7 +5197,7 @@
         <v>6000</v>
       </c>
       <c r="I149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -5255,7 +5255,7 @@
         <v>2500</v>
       </c>
       <c r="I151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -5313,7 +5313,7 @@
         <v>2500</v>
       </c>
       <c r="I153" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -5342,7 +5342,7 @@
         <v>7500</v>
       </c>
       <c r="I154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
@@ -5371,7 +5371,7 @@
         <v>1200</v>
       </c>
       <c r="I155" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
         <v>450</v>
       </c>
       <c r="I156" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -5487,7 +5487,7 @@
         <v>300</v>
       </c>
       <c r="I159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -5632,7 +5632,7 @@
         <v>300</v>
       </c>
       <c r="I164" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
         <v>2800</v>
       </c>
       <c r="I169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
@@ -5835,7 +5835,7 @@
         <v>2500</v>
       </c>
       <c r="I171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
@@ -5951,7 +5951,7 @@
         <v>3500</v>
       </c>
       <c r="I175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
@@ -6009,7 +6009,7 @@
         <v>5600</v>
       </c>
       <c r="I177" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
@@ -6067,7 +6067,7 @@
         <v>5600</v>
       </c>
       <c r="I179" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
@@ -6096,7 +6096,7 @@
         <v>1200</v>
       </c>
       <c r="I180" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -6125,7 +6125,7 @@
         <v>1200</v>
       </c>
       <c r="I181" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -6212,7 +6212,7 @@
         <v>1000</v>
       </c>
       <c r="I184" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
@@ -6386,7 +6386,7 @@
         <v>4500</v>
       </c>
       <c r="I190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
@@ -6444,7 +6444,7 @@
         <v>3000</v>
       </c>
       <c r="I192" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
@@ -6502,7 +6502,7 @@
         <v>11200</v>
       </c>
       <c r="I194" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
@@ -6560,7 +6560,7 @@
         <v>250</v>
       </c>
       <c r="I196" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
@@ -6618,7 +6618,7 @@
         <v>2200</v>
       </c>
       <c r="I198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
@@ -6705,7 +6705,7 @@
         <v>750</v>
       </c>
       <c r="I201" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
@@ -6734,7 +6734,7 @@
         <v>5600</v>
       </c>
       <c r="I202" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
@@ -6821,7 +6821,7 @@
         <v>11200</v>
       </c>
       <c r="I205" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
@@ -6879,7 +6879,7 @@
         <v>10000</v>
       </c>
       <c r="I207" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
@@ -7140,7 +7140,7 @@
         <v>2400</v>
       </c>
       <c r="I216" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
@@ -7198,7 +7198,7 @@
         <v>8400</v>
       </c>
       <c r="I218" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
@@ -7285,7 +7285,7 @@
         <v>300</v>
       </c>
       <c r="I221" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
@@ -7372,7 +7372,7 @@
         <v>11000</v>
       </c>
       <c r="I224" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
@@ -7401,7 +7401,7 @@
         <v>2400</v>
       </c>
       <c r="I225" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
@@ -7430,7 +7430,7 @@
         <v>100</v>
       </c>
       <c r="I226" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
@@ -7488,7 +7488,7 @@
         <v>2800</v>
       </c>
       <c r="I228" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
@@ -7517,7 +7517,7 @@
         <v>900</v>
       </c>
       <c r="I229" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
@@ -7546,7 +7546,7 @@
         <v>1800</v>
       </c>
       <c r="I230" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
@@ -7633,7 +7633,7 @@
         <v>2200</v>
       </c>
       <c r="I233" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
@@ -7662,7 +7662,7 @@
         <v>4800</v>
       </c>
       <c r="I234" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
@@ -7691,7 +7691,7 @@
         <v>600</v>
       </c>
       <c r="I235" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
@@ -7720,7 +7720,7 @@
         <v>7500</v>
       </c>
       <c r="I236" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
@@ -7778,7 +7778,7 @@
         <v>11200</v>
       </c>
       <c r="I238" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
@@ -7807,7 +7807,7 @@
         <v>800</v>
       </c>
       <c r="I239" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
@@ -7865,7 +7865,7 @@
         <v>8400</v>
       </c>
       <c r="I241" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
@@ -7894,7 +7894,7 @@
         <v>16000</v>
       </c>
       <c r="I242" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
@@ -7923,7 +7923,7 @@
         <v>1400</v>
       </c>
       <c r="I243" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
@@ -7952,7 +7952,7 @@
         <v>1500</v>
       </c>
       <c r="I244" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
@@ -7981,7 +7981,7 @@
         <v>2100</v>
       </c>
       <c r="I245" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
@@ -8010,7 +8010,7 @@
         <v>500</v>
       </c>
       <c r="I246" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
@@ -8068,7 +8068,7 @@
         <v>2800</v>
       </c>
       <c r="I248" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
@@ -8097,7 +8097,7 @@
         <v>12800</v>
       </c>
       <c r="I249" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
@@ -8155,7 +8155,7 @@
         <v>150</v>
       </c>
       <c r="I251" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
@@ -8184,7 +8184,7 @@
         <v>3200</v>
       </c>
       <c r="I252" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
@@ -8213,7 +8213,7 @@
         <v>2200</v>
       </c>
       <c r="I253" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
@@ -8271,7 +8271,7 @@
         <v>400</v>
       </c>
       <c r="I255" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
@@ -8387,7 +8387,7 @@
         <v>100</v>
       </c>
       <c r="I259" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
@@ -8416,7 +8416,7 @@
         <v>1200</v>
       </c>
       <c r="I260" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
@@ -8474,7 +8474,7 @@
         <v>3200</v>
       </c>
       <c r="I262" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
@@ -8503,7 +8503,7 @@
         <v>1200</v>
       </c>
       <c r="I263" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
@@ -8561,7 +8561,7 @@
         <v>2800</v>
       </c>
       <c r="I265" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
@@ -8735,7 +8735,7 @@
         <v>2800</v>
       </c>
       <c r="I271" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
@@ -8764,7 +8764,7 @@
         <v>1800</v>
       </c>
       <c r="I272" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
@@ -8793,7 +8793,7 @@
         <v>3600</v>
       </c>
       <c r="I273" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
@@ -8880,7 +8880,7 @@
         <v>1400</v>
       </c>
       <c r="I276" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
@@ -8909,7 +8909,7 @@
         <v>8800</v>
       </c>
       <c r="I277" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
@@ -8996,7 +8996,7 @@
         <v>1600</v>
       </c>
       <c r="I280" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
@@ -9141,7 +9141,7 @@
         <v>300</v>
       </c>
       <c r="I285" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
@@ -9199,7 +9199,7 @@
         <v>900</v>
       </c>
       <c r="I287" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.35">
@@ -9228,7 +9228,7 @@
         <v>600</v>
       </c>
       <c r="I288" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
@@ -9257,7 +9257,7 @@
         <v>600</v>
       </c>
       <c r="I289" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
@@ -9286,7 +9286,7 @@
         <v>2800</v>
       </c>
       <c r="I290" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
@@ -9344,7 +9344,7 @@
         <v>3200</v>
       </c>
       <c r="I292" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
@@ -9373,7 +9373,7 @@
         <v>2700</v>
       </c>
       <c r="I293" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
@@ -9402,7 +9402,7 @@
         <v>900</v>
       </c>
       <c r="I294" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
@@ -9460,7 +9460,7 @@
         <v>2400</v>
       </c>
       <c r="I296" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
@@ -9518,7 +9518,7 @@
         <v>14000</v>
       </c>
       <c r="I298" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
@@ -9547,7 +9547,7 @@
         <v>2000</v>
       </c>
       <c r="I299" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
@@ -9779,7 +9779,7 @@
         <v>450</v>
       </c>
       <c r="I307" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
@@ -9808,7 +9808,7 @@
         <v>1500</v>
       </c>
       <c r="I308" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
@@ -9866,7 +9866,7 @@
         <v>3500</v>
       </c>
       <c r="I310" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
@@ -9895,7 +9895,7 @@
         <v>3200</v>
       </c>
       <c r="I311" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
@@ -9924,7 +9924,7 @@
         <v>14000</v>
       </c>
       <c r="I312" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
@@ -10011,7 +10011,7 @@
         <v>200</v>
       </c>
       <c r="I315" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
@@ -10272,7 +10272,7 @@
         <v>900</v>
       </c>
       <c r="I324" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
@@ -10301,7 +10301,7 @@
         <v>2800</v>
       </c>
       <c r="I325" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
@@ -10330,7 +10330,7 @@
         <v>900</v>
       </c>
       <c r="I326" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
@@ -10388,7 +10388,7 @@
         <v>1200</v>
       </c>
       <c r="I328" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
@@ -10504,7 +10504,7 @@
         <v>8400</v>
       </c>
       <c r="I332" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
@@ -10533,7 +10533,7 @@
         <v>8800</v>
       </c>
       <c r="I333" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
@@ -10707,7 +10707,7 @@
         <v>11000</v>
       </c>
       <c r="I339" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
@@ -10736,7 +10736,7 @@
         <v>3200</v>
       </c>
       <c r="I340" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
@@ -10765,7 +10765,7 @@
         <v>400</v>
       </c>
       <c r="I341" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
@@ -10823,7 +10823,7 @@
         <v>1000</v>
       </c>
       <c r="I343" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
@@ -10852,7 +10852,7 @@
         <v>4500</v>
       </c>
       <c r="I344" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
@@ -10881,7 +10881,7 @@
         <v>250</v>
       </c>
       <c r="I345" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
@@ -10939,7 +10939,7 @@
         <v>2500</v>
       </c>
       <c r="I347" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
@@ -10997,7 +10997,7 @@
         <v>200</v>
       </c>
       <c r="I349" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
@@ -11026,7 +11026,7 @@
         <v>3500</v>
       </c>
       <c r="I350" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
@@ -11055,7 +11055,7 @@
         <v>6400</v>
       </c>
       <c r="I351" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
@@ -11113,7 +11113,7 @@
         <v>1500</v>
       </c>
       <c r="I353" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.35">
@@ -11200,7 +11200,7 @@
         <v>5600</v>
       </c>
       <c r="I356" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.35">
@@ -11258,7 +11258,7 @@
         <v>16000</v>
       </c>
       <c r="I358" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.35">
@@ -11287,7 +11287,7 @@
         <v>12500</v>
       </c>
       <c r="I359" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.35">
@@ -11316,7 +11316,7 @@
         <v>400</v>
       </c>
       <c r="I360" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.35">
@@ -11345,7 +11345,7 @@
         <v>6600</v>
       </c>
       <c r="I361" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.35">
@@ -11461,7 +11461,7 @@
         <v>100</v>
       </c>
       <c r="I365" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.35">
@@ -11490,7 +11490,7 @@
         <v>800</v>
       </c>
       <c r="I366" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.35">
@@ -11548,7 +11548,7 @@
         <v>7500</v>
       </c>
       <c r="I368" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.35">
@@ -11577,7 +11577,7 @@
         <v>600</v>
       </c>
       <c r="I369" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.35">
@@ -11606,7 +11606,7 @@
         <v>12800</v>
       </c>
       <c r="I370" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.35">
@@ -11635,7 +11635,7 @@
         <v>2200</v>
       </c>
       <c r="I371" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.35">
@@ -11664,7 +11664,7 @@
         <v>2800</v>
       </c>
       <c r="I372" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.35">
@@ -11751,7 +11751,7 @@
         <v>7500</v>
       </c>
       <c r="I375" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.35">
@@ -11780,7 +11780,7 @@
         <v>12500</v>
       </c>
       <c r="I376" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
@@ -11809,7 +11809,7 @@
         <v>3000</v>
       </c>
       <c r="I377" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
@@ -11954,7 +11954,7 @@
         <v>6600</v>
       </c>
       <c r="I382" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
@@ -11983,7 +11983,7 @@
         <v>1800</v>
       </c>
       <c r="I383" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.35">
@@ -12041,7 +12041,7 @@
         <v>8800</v>
       </c>
       <c r="I385" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
@@ -12070,7 +12070,7 @@
         <v>300</v>
       </c>
       <c r="I386" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
@@ -12099,7 +12099,7 @@
         <v>2400</v>
       </c>
       <c r="I387" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
@@ -12186,7 +12186,7 @@
         <v>3000</v>
       </c>
       <c r="I390" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
@@ -12215,7 +12215,7 @@
         <v>14000</v>
       </c>
       <c r="I391" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
@@ -12244,7 +12244,7 @@
         <v>1200</v>
       </c>
       <c r="I392" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
@@ -12331,7 +12331,7 @@
         <v>7000</v>
       </c>
       <c r="I395" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.35">
@@ -12389,7 +12389,7 @@
         <v>600</v>
       </c>
       <c r="I397" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.35">
@@ -12476,7 +12476,7 @@
         <v>3600</v>
       </c>
       <c r="I400" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
@@ -12534,7 +12534,7 @@
         <v>3500</v>
       </c>
       <c r="I402" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
@@ -12563,7 +12563,7 @@
         <v>400</v>
       </c>
       <c r="I403" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
@@ -12592,7 +12592,7 @@
         <v>7500</v>
       </c>
       <c r="I404" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
@@ -12621,7 +12621,7 @@
         <v>2100</v>
       </c>
       <c r="I405" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
@@ -12650,7 +12650,7 @@
         <v>7500</v>
       </c>
       <c r="I406" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
@@ -12679,7 +12679,7 @@
         <v>450</v>
       </c>
       <c r="I407" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
@@ -12737,7 +12737,7 @@
         <v>3500</v>
       </c>
       <c r="I409" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.35">
@@ -14970,7 +14970,7 @@
         <v>2700</v>
       </c>
       <c r="I486" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.35">
@@ -14999,7 +14999,7 @@
         <v>1500</v>
       </c>
       <c r="I487" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.35">
@@ -15028,7 +15028,7 @@
         <v>2800</v>
       </c>
       <c r="I488" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.35">
@@ -15115,7 +15115,7 @@
         <v>750</v>
       </c>
       <c r="I491" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.35">
@@ -15260,7 +15260,7 @@
         <v>7500</v>
       </c>
       <c r="I496" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
@@ -15376,7 +15376,7 @@
         <v>9600</v>
       </c>
       <c r="I500" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.35">
